--- a/public/sampleRoles.xlsx
+++ b/public/sampleRoles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sr.</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>client</t>
-  </si>
-  <si>
-    <t>Note:All fields are required for every item.</t>
   </si>
 </sst>
 </file>
@@ -449,17 +446,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:D10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
